--- a/Parte 2/Scripts/Z0barra.xlsx
+++ b/Parte 2/Scripts/Z0barra.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ric\projects\Estudos\Trabalhos SEP\Parte 2\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6631499-CF7B-46A2-9AA1-CB7EBB31DE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF04C6C-D0AF-4368-B2A7-4C29035DCCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Z0barra" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="36">
   <si>
     <t>0.00173+0.07793i</t>
   </si>
@@ -95,13 +95,46 @@
   </si>
   <si>
     <t>1.04875+4.07115i</t>
+  </si>
+  <si>
+    <t>Coluna 1</t>
+  </si>
+  <si>
+    <t>Coluna 2</t>
+  </si>
+  <si>
+    <t>Coluna 3</t>
+  </si>
+  <si>
+    <t>Coluna 4</t>
+  </si>
+  <si>
+    <t>Coluna 5</t>
+  </si>
+  <si>
+    <t>Coluna 6</t>
+  </si>
+  <si>
+    <t>Coluna 7</t>
+  </si>
+  <si>
+    <t>Coluna 8</t>
+  </si>
+  <si>
+    <t>Coluna 9</t>
+  </si>
+  <si>
+    <t>Coluna 10</t>
+  </si>
+  <si>
+    <t>Coluna 11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +265,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -934,11 +973,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,51 +997,51 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="K1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -1014,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I2" t="s">
         <v>4</v>
@@ -1028,16 +1067,16 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -1049,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
@@ -1063,17 +1102,17 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
         <v>4</v>
       </c>
@@ -1084,7 +1123,7 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
@@ -1098,31 +1137,31 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
         <v>4</v>
@@ -1148,16 +1187,16 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
         <v>4</v>
@@ -1186,7 +1225,7 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -1203,31 +1242,31 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
         <v>4</v>
@@ -1238,31 +1277,31 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="I9" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="J9" t="s">
         <v>4</v>
@@ -1285,25 +1324,25 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
       </c>
       <c r="I10" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1338,10 +1377,46 @@
         <v>23</v>
       </c>
       <c r="K11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>